--- a/test_qianchengdai/test_data/test_data.xlsx
+++ b/test_qianchengdai/test_data/test_data.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6049137C-3A10-4CA4-A41E-DC4909BE80B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9204"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
   <si>
     <t>mobilephone</t>
   </si>
@@ -31,231 +31,512 @@
   </si>
   <si>
     <t>pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望值(status)</t>
+  </si>
+  <si>
+    <t>实际值(status)</t>
   </si>
   <si>
     <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常注册（密码输入6位）</t>
   </si>
   <si>
     <t>Sherlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望值(status)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际值(status)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不输入注册名（该项可选）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码输入18位</t>
+  </si>
+  <si>
+    <t>000000000000000000</t>
+  </si>
+  <si>
+    <t>密码输入17位</t>
+  </si>
+  <si>
+    <t>00000000000000000</t>
+  </si>
+  <si>
+    <t>密码输入7位</t>
+  </si>
+  <si>
+    <t>0000000</t>
   </si>
   <si>
     <t>不输入密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不输入手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tom</t>
   </si>
   <si>
     <t>手机号位数只有10位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机号位数有12位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>158987456333</t>
+  </si>
+  <si>
+    <t>手机号格式错误</t>
+  </si>
+  <si>
+    <t>12212345687</t>
   </si>
   <si>
     <t>密码只输入5位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15898745637</t>
+  </si>
+  <si>
+    <t>12345</t>
   </si>
   <si>
     <t>密码输入19位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常注册（密码输入6位）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码输入18位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码输入17位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码输入7位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号格式错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15898745638</t>
+  </si>
+  <si>
+    <t>0000000000000000000</t>
   </si>
   <si>
     <t>输入已经注册过的号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>158987456333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12212345687</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15898745637</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15898745638</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>正常登陆功能测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>密码输入错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机号输入错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机号密码都为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>amount</t>
   </si>
   <si>
+    <t>期望值(code)</t>
+  </si>
+  <si>
+    <t>实际值(code)</t>
+  </si>
+  <si>
     <t>正常充值测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望值(code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>充值0元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>充值50万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>充值0.01元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>充值490000.99元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>充值-0.01元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>充值500000.01元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际值(code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不输入金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金额输入包含符号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>￥5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -263,37 +544,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -342,7 +909,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -377,7 +944,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -551,274 +1118,269 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="5" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
         <v>15898745632</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
         <v>123456</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
         <v>15898745631</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>123456</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
         <v>15898745633</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
         <v>15898745634</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
         <v>15898745635</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
         <v>15898745636</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5">
         <v>123456</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5">
         <v>1589874563</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>123456</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5">
         <v>123456</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5">
         <v>123457</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="4">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5">
         <v>15898745632</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>123456</v>
       </c>
       <c r="F14">
@@ -826,21 +1388,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74D94FE-902D-4CE0-B006-6A394BC9BECD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="27.75" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
@@ -848,82 +1411,82 @@
     <col min="6" max="6" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>15898745632</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>123456</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5">
         <v>123456</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5">
         <v>15898745632</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>15898745632</v>
       </c>
       <c r="D5">
@@ -933,24 +1496,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5">
         <v>123456</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -962,227 +1525,228 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A0229D-42B2-4B00-8936-FAB2FEA44CB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="6" max="6" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="4">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5">
         <v>15898745632</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="1">
         <v>100000</v>
       </c>
       <c r="E2">
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="4">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5">
         <v>15898745632</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3">
         <v>10001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="4">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5">
         <v>15898745632</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="1">
         <v>500000</v>
       </c>
       <c r="E4">
         <v>10001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="4">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5">
         <v>15898745632</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="1">
         <v>0.01</v>
       </c>
       <c r="E5">
         <v>10001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="4">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5">
         <v>15898745632</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="1">
         <v>490000.99</v>
       </c>
       <c r="E6">
         <v>10001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="4">
+        <v>44</v>
+      </c>
+      <c r="C7" s="5">
         <v>15898745632</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="1">
         <v>-0.01</v>
       </c>
       <c r="E7">
         <v>20117</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5">
         <v>15898745632</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="1">
         <v>500000.01</v>
       </c>
       <c r="E8">
         <v>20117</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="7">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="1">
         <v>100000</v>
       </c>
       <c r="E9">
         <v>20103</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1">
         <v>100000</v>
       </c>
       <c r="E10">
         <v>20109</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>15898745632</v>
       </c>
       <c r="E11">
         <v>20115</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>15898745632</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E12">
@@ -1190,7 +1754,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/test_qianchengdai/test_data/test_data.xlsx
+++ b/test_qianchengdai/test_data/test_data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9204"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9204" windowWidth="23040"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>序号</t>
   </si>
@@ -170,181 +170,181 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt formatCode="0.00_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="167"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="168"/>
   </numFmts>
   <fonts count="22">
     <font>
-      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -644,225 +644,224 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="9" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="168">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="24" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1122,25 +1121,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="23.75"/>
+    <col customWidth="1" max="3" min="3" style="5" width="17.875"/>
+    <col customWidth="1" max="4" min="4" width="12.5"/>
+    <col customWidth="1" max="5" min="5" style="5" width="19.75"/>
+    <col customWidth="1" max="6" min="6" width="14.125"/>
+    <col customWidth="1" max="7" min="7" width="16.125"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:8">
+    <row customFormat="1" r="1" s="2" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1166,110 +1168,110 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+    <row r="2" spans="1:8">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5">
-        <v>15898745632</v>
+      <c r="C2" s="5" t="n">
+        <v>18930284351</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="5" t="n">
         <v>123456</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+    <row r="3" spans="1:8">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
-        <v>15898745631</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" s="5" t="n">
+        <v>18930284352</v>
+      </c>
+      <c r="E3" s="5" t="n">
         <v>123456</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+    <row r="4" spans="1:8">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5">
-        <v>15898745633</v>
+      <c r="C4" s="5" t="n">
+        <v>18930284353</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+    <row r="5" spans="1:8">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5">
-        <v>15898745634</v>
+      <c r="C5" s="5" t="n">
+        <v>18930284354</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+    <row r="6" spans="1:8">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
-        <v>15898745635</v>
+      <c r="C6" s="5" t="n">
+        <v>18930284355</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+    <row r="7" spans="1:8">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="5" t="n">
         <v>15898745636</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+    <row r="8" spans="1:8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1278,32 +1280,32 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="5" t="n">
         <v>123456</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+    <row r="9" spans="1:8">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="5" t="n">
         <v>1589874563</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="5" t="n">
         <v>123456</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+    <row r="10" spans="1:8">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1312,15 +1314,15 @@
       <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="5" t="n">
         <v>123456</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
+    <row r="11" spans="1:8">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1329,15 +1331,15 @@
       <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="5" t="n">
         <v>123457</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
+    <row r="12" spans="1:8">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1349,12 +1351,12 @@
       <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
+    <row r="13" spans="1:8">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -1366,49 +1368,51 @@
       <c r="E13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
+    <row r="14" spans="1:8">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="5" t="n">
         <v>15898745632</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="5" t="n">
         <v>123456</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="0" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="27.75"/>
+    <col customWidth="1" max="3" min="3" width="17.875"/>
+    <col customWidth="1" max="5" min="5" width="17.5"/>
+    <col customWidth="1" max="6" min="6" width="15.375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1434,70 +1438,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="2" spans="1:7">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="5" t="n">
         <v>15898745632</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="5" t="n">
         <v>123456</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    <row r="3" spans="1:7">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="n">
         <v>123456</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+    <row r="4" spans="1:7">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="5" t="n">
         <v>15898745632</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+    <row r="5" spans="1:7">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="5" t="n">
         <v>15898745632</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>1234567</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+    <row r="6" spans="1:7">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1506,46 +1510,48 @@
       <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5" t="n">
         <v>123456</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+    <row r="7" spans="1:7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="16.75"/>
+    <col customWidth="1" max="3" min="3" width="15.75"/>
+    <col customWidth="1" max="4" min="4" style="8" width="15.75"/>
+    <col customWidth="1" max="5" min="5" width="16.25"/>
+    <col customWidth="1" max="6" min="6" width="16.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1558,7 +1564,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1571,142 +1577,142 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="2" spans="1:7">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="5" t="n">
         <v>15898745632</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="8" t="n">
         <v>100000</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    <row r="3" spans="1:7">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="5" t="n">
         <v>15898745632</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>10001</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+    <row r="4" spans="1:7">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="5" t="n">
         <v>15898745632</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="8" t="n">
         <v>500000</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>10001</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+    <row r="5" spans="1:7">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="5" t="n">
         <v>15898745632</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="8" t="n">
         <v>0.01</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>10001</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+    <row r="6" spans="1:7">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="5" t="n">
         <v>15898745632</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="8" t="n">
         <v>490000.99</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>10001</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+    <row r="7" spans="1:7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="5" t="n">
         <v>15898745632</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>20117</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+    <row r="8" spans="1:7">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="5" t="n">
         <v>15898745632</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="8" t="n">
         <v>500000.01</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>20117</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+    <row r="9" spans="1:7">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1">
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="8" t="n">
         <v>100000</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>20103</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
+    <row r="10" spans="1:7">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1715,46 +1721,45 @@
       <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="8" t="n">
         <v>100000</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>20109</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
+    <row r="11" spans="1:7">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="5" t="n">
         <v>15898745632</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>20115</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
+    <row r="12" spans="1:7">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="5" t="n">
         <v>15898745632</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>20118</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
 </worksheet>
 </file>